--- a/medicine/Mort/Décès_en_1945/Décès_en_1945.xlsx
+++ b/medicine/Mort/Décès_en_1945/Décès_en_1945.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1945</t>
+          <t>Décès_en_1945</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1945</t>
+          <t>Décès_en_1945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Alfredo Gauro Ambrosi, peintre italien (° 8 août 1901).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alfredo Gauro Ambrosi, peintre italien (° 8 août 1901).
 Dragomir Arambašić, sculpteur et peintre serbe puis yougoslave (° 1881).
 Paul Baignères, peintre, illustrateur et décorateur français (° 17 novembre 1869).
 Louis Bausil, peintre français (° 1876).
@@ -549,9 +566,43 @@
 Lhadj Belaïd, poète marocain d'expression berbère chleuhe (° vers 1873).
 Henri Dodelier, militaire, illustrateur et peintre français (° 9 octobre 1862).
 1942 ou 1945 :
-Boris Zvorykine, peintre, illustrateur et traducteur russe puis soviétique (° 1er octobre 1872).
-Janvier
-1er janvier : Hermann Buse, coureur cycliste allemand (° 27 février 1907).
+Boris Zvorykine, peintre, illustrateur et traducteur russe puis soviétique (° 1er octobre 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Hermann Buse, coureur cycliste allemand (° 27 février 1907).
 2 janvier : Ajjada Adibhatla Narayana Dasu, écrivain, compositeur, musicien et littérateur indien (° 31 août 1864).
 4 janvier : Fritz Elsas, homme politique allemand (° 11 juillet 1890).
 6 janvier :
@@ -567,9 +618,43 @@
 25 janvier : : René Carmille, polytechnicien français et créateur du Service national des statistiques (° 8 janvier 1886).
 26 janvier : Ma Lin, homme politique chinois (° 1873).
 27 janvier : Daniël Belinfante, compositeur néerlandais (° 6 mars 1893).
-31 janvier : Benoît Hartmann, peintre français (° 27 janvier 1865).
-Février
-1er février : Teresa Bogusławska, poétesse polonaise (° 13 juillet 1929).
+31 janvier : Benoît Hartmann, peintre français (° 27 janvier 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Teresa Bogusławska, poétesse polonaise (° 13 juillet 1929).
 2 février : Johannes Popitz, homme politique allemand (° 2 décembre 1884).
 3 février : José Rolón, compositeur, chef d'orchestre et professeur de musique mexicain (° 22 juin 1876).
 4 février : Georges Lapierre, instituteur syndicaliste et résistant français (° 28 février 1886).
@@ -582,9 +667,43 @@
 Nikolaï Bogdanov-Belski, peintre russe puis soviétique (° 6 décembre 1868).
 22 février : Jan van Hout, coureur cycliste néerlandais (° 17 octobre 1908).
 26 février : Hashimoto Kansetsu, peintre japonais du style nihonga (° 10 novembre 1883).
-27 février : Isidore Odorico, mosaïste et footballeur français (° 30 octobre 1893).
-Mars
-2 mars : Jean-Baptiste Lemire, compositeur français (° 8 juin 1867).
+27 février : Isidore Odorico, mosaïste et footballeur français (° 30 octobre 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Jean-Baptiste Lemire, compositeur français (° 8 juin 1867).
 6 mars :
 Étienne Martin, peintre compositeur et écrivain français (° 27 juillet 1856).
 Milena Pavlović-Barili, peintre et poétesse serbe puis yougoslave (° 5 novembre 1909).
@@ -610,9 +729,43 @@
 29 mars : Sarah Jane Eddy, peintre et photographe américaine (° 3 mai 1851).
 30 mars : Eugène Maës, footballeur français (° 15 septembre 1890).
 31 mars : Hans Riegel, fondateur de l'entreprise allemande de confiserie Haribo (° 3 avril 1893).
-? mars : Emīlija Gruzīte, peintre lettonne (° 7 septembre 1873).
-Avril
-1er avril : Blanche Paugam, résistante française (° 23 mai 1898).
+? mars : Emīlija Gruzīte, peintre lettonne (° 7 septembre 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Blanche Paugam, résistante française (° 23 mai 1898).
 3 avril :
 Jean Burger, résistant français, militant communiste, fondateur du groupe de résistance « Mario » (°16 février 1907).
 Arthur Vanderpoorten, homme politique belge (° 17 février 1884).
@@ -642,9 +795,43 @@
 Eva Braun, compagne d'Adolf Hitler (° 6 février 1912).
 Adolf Hitler, dictateur allemand d'origine autrichienne (suicidé) (° 20 avril 1889).
 Chris Lebeau, peintre, graphiste, professeur d'art, théosophe et anarchiste néerlandais (° 26 mai 1878).
-? avril : Josef Čapek, peintre, écrivain, photographe et illustrateur austro-hongrois puis tchécoslovaque (° 23 mars 1887).
-Mai
-1er mai :
+? avril : Josef Čapek, peintre, écrivain, photographe et illustrateur austro-hongrois puis tchécoslovaque (° 23 mars 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai :
 Mohammed El-Ghazali Ben El-Haffaf, militant algérien du Parti du peuple algérien (° 1er octobre 1923).
 Joseph Goebbels, ministre nazi de la Propagande (suicidé) (° 29 octobre 1897).
 2 mai : Eugène Vaulot, militaire français  (° 1er juin 1923).
@@ -657,9 +844,43 @@
 23 mai : Heinrich Himmler dirigeant nazi (° 7 octobre 1900).
 24 mai : Constantin Gorbatov, peintre russe (° 17 mai 1876).
 31 mai : Leonid Pasternak, peintre russe (° 4 avril 1862).
-? mai : Emil Perška, footballeur serbe puis yougoslave (° 1897).
-Juin
-5 juin : Antonín Procházka, peintre austro-hongrois puis tchécoslovaque (° 5 juin 1882).
+? mai : Emil Perška, footballeur serbe puis yougoslave (° 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 juin : Antonín Procházka, peintre austro-hongrois puis tchécoslovaque (° 5 juin 1882).
 6 juin : Francesco Verri, coureur cycliste italien (° 11 juin 1885).
 7 juin : Fausto Eliseo Coppini, peintre italien (° 15 février 1870).
 8 juin : Robert Desnos, poète français (° 4 juillet 1900).
@@ -669,9 +890,43 @@
 20 juin : J. André Fouilhoux, architecte américain d'origine française (° 27 septembre 1879).
 22 juin : Jamboul Jabayev, musicien et poète russe puis soviétique (° 28 février 1846).
 24 juin : José Luis Gutiérrez Solana, peintre espagnol (° 28 février 1886).
-25 juin : Lazar Zalkind, problémiste russe puis soviétique (° 2 janvier 1886).
-Juillet
-6 juillet : Adolf Bertram, cardinal allemand (° 14 mars 1859).
+25 juin : Lazar Zalkind, problémiste russe puis soviétique (° 2 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6 juillet : Adolf Bertram, cardinal allemand (° 14 mars 1859).
 9 juillet : Léon Printemps, peintre français (° 26 mai 1871).
 15 juillet : Enrico Giannelli, peintre italien (° 30 décembre 1854).
 18 juillet : Édouard Bisson, peintre français (° 6 avril 1856).
@@ -680,9 +935,43 @@
 Belle Johnson, photographe américaine (° 4 août 1864).
 20 juillet : Paul Valéry, écrivain français (° 30 octobre 1871).
 22 juillet : Veloso Salgado, peintre portugais (° 2 avril 1864).
-? juillet :  Marguerite Crissay, peintre française (° 1874).
-Août
-2 août : Emil von Řezníček, compositeur autrichien d'origine tchèque (° 4 mai 1860).
+? juillet :  Marguerite Crissay, peintre française (° 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Emil von Řezníček, compositeur autrichien d'origine tchèque (° 4 mai 1860).
 3 août : Rudolf Holsti, homme politique, journaliste et diplomate finlandais (° 8 octobre 1881).
 10 août : Robert Goddard, ingénieur et physicien américain (° 5 octobre 1882).
 13 août : Abel Faivre, peintre, illustrateur et caricaturiste français (° 30 mars 1867).
@@ -691,17 +980,85 @@
 24 août :
 Venceslas Dédina, graveur, peintre et sculpteur français d'origine austro-hongroise (° 21 août 1872).
 Midori Naka, actrice japonaise (° 19 juin 1909).
-27 août : Antoine Albitreccia, historien et géographe français (° 25 décembre 1892).
-Septembre
-10 septembre : Väinö Raitio, compositeur finlandais (° 15 avril 1891).
+27 août : Antoine Albitreccia, historien et géographe français (° 25 décembre 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10 septembre : Väinö Raitio, compositeur finlandais (° 15 avril 1891).
 13 septembre :
 Annibale Comessatti, mathématicien italien (° 30 janvier 1886).
 Édouard Fraisse, peintre, sculpteur et médailleur français (° 14 mai 1880).
 15 septembre : Anton von Webern, compositeur autrichien (° 3 décembre 1883).
 26 septembre : Béla Bartók, compositeur hongrois (° 25 mars 1881).
-28 septembre : Pierre Aubin, peintre français (° 21 novembre 1884).
-Octobre
-1er octobre : Oscar Lüthy, peintre suisse (° 26 juin 1882).
+28 septembre : Pierre Aubin, peintre français (° 21 novembre 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Oscar Lüthy, peintre suisse (° 26 juin 1882).
 10 octobre : Joseph Darnand, chef de la Milice française (° 19 mars 1897).
 13 octobre : Lucien Simon, peintre, aquarelliste, dessinateur et lithographe français (° 18 juillet 1861).
 15 octobre : Pierre Laval, homme d'État français (° 28 juin 1883).
@@ -715,16 +1072,84 @@
 31 octobre :
 Georges Lambelet, compositeur et musicologue grec (° 24 décembre 1875).
 Ignacio Zuloaga, peintre espagnol (° 20 juin 1870).
-?  octobre : Marie-Thérèse Dethan-Roullet, peintre française (° février 1870).
-Novembre
-8 novembre : Alexandre Cingria, peintre, décorateur, dessinateur, critique d'art et écrivain suisse (° 22 mars 1879).
+?  octobre : Marie-Thérèse Dethan-Roullet, peintre française (° février 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8 novembre : Alexandre Cingria, peintre, décorateur, dessinateur, critique d'art et écrivain suisse (° 22 mars 1879).
 21 novembre : Robert Benchley, humoriste, acteur, journaliste et scénariste américain (° 15 septembre 1889).
 25 novembre : Georges Charpy, chimiste, métallurgiste français (° 1er septembre 1865).
 26 novembre : Annick Pizigot, résistante française (° 16 septembre 1924).
 27 novembre : José Maria Sert, peintre et photographe espagnol (° 21 décembre 1874).
-30 novembre : Albert Éloy-Vincent, journaliste et peintre français (° 20 décembre 1868).
-Décembre
-3 décembre :
+30 novembre : Albert Éloy-Vincent, journaliste et peintre français (° 20 décembre 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1945</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre :
 Léon Eyrolles, homme politique et entrepreneur français (° 14 décembre 1861).
 Fred Rains, acteur britannique (° vers 1875).
 6 décembre : Yun Chi-ho, homme politique coréen (° 26 décembre 1865).
